--- a/3/gamm_analysis_report_significance_table.xlsx
+++ b/3/gamm_analysis_report_significance_table.xlsx
@@ -480,7 +480,7 @@
         <v>0.129061215679228</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09954903145306866</v>
+        <v>0.09954903145306845</v>
       </c>
       <c r="D2" t="n">
         <v>1.656535314863981</v>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09076226767542729</v>
+        <v>-0.09076226767542728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2477543635282112</v>
+        <v>0.2477543635282114</v>
       </c>
       <c r="D3" t="n">
         <v>-1.160002879333745</v>
@@ -534,7 +534,7 @@
         <v>-0.001094519436705528</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9889021980554203</v>
+        <v>0.9889021980554179</v>
       </c>
       <c r="D4" t="n">
         <v>-0.01393096642949117</v>
@@ -561,7 +561,7 @@
         <v>-0.05207681355843913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5078064454952944</v>
+        <v>0.5078064454952912</v>
       </c>
       <c r="D5" t="n">
         <v>-0.6637302516137905</v>
@@ -588,7 +588,7 @@
         <v>0.004398942663376509</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9554188150417613</v>
+        <v>0.9554188150417586</v>
       </c>
       <c r="D6" t="n">
         <v>0.05598994109663902</v>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02029114583445276</v>
+        <v>-0.02029114583445275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7964899201058994</v>
+        <v>0.7964899201058998</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2583173067612571</v>
+        <v>-0.258317306761257</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03035872241892941</v>
+        <v>0.0303587224189294</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6995732485842748</v>
+        <v>0.6995732485842735</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3865816407732073</v>
+        <v>0.3865816407732071</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>-0.09211556759242522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.24074451806</v>
+        <v>0.2407445180599997</v>
       </c>
       <c r="D9" t="n">
         <v>-1.177445884866853</v>
@@ -696,7 +696,7 @@
         <v>-0.1333254714683755</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08876543332740819</v>
+        <v>0.0887654333274082</v>
       </c>
       <c r="D10" t="n">
         <v>-1.71224258495797</v>
@@ -723,7 +723,7 @@
         <v>0.132922649986317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08974243140138466</v>
+        <v>0.08974243140138478</v>
       </c>
       <c r="D11" t="n">
         <v>1.706976128178443</v>
@@ -750,10 +750,10 @@
         <v>0.1282068133022141</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1018293335761176</v>
+        <v>0.1018293335761177</v>
       </c>
       <c r="D12" t="n">
-        <v>1.64538494194584</v>
+        <v>1.645384941945839</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
